--- a/Alternatives/Alternative1_02_ShutDown:SlowerService/ServiceWorksheetalt_slowerservice.xlsx
+++ b/Alternatives/Alternative1_02_ShutDown:SlowerService/ServiceWorksheetalt_slowerservice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13060" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="4780" yWindow="3340" windowWidth="24860" windowHeight="15640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2035_ALT1_00" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
   <si>
     <t>FREQ[1]</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>CROSSING TOTAL</t>
+  </si>
+  <si>
+    <t>FACTOR</t>
   </si>
 </sst>
 </file>
@@ -273,8 +276,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -359,7 +364,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -370,6 +375,7 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -380,6 +386,7 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -719,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -800,7 +807,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" ht="47.25">
+    <row r="2" spans="1:19" s="2" customFormat="1" ht="45">
       <c r="C2" s="7" t="s">
         <v>48</v>
       </c>
@@ -927,24 +934,31 @@
         <v>0</v>
       </c>
       <c r="F4" s="10">
-        <v>10</v>
+        <f>10*$B$10</f>
+        <v>40</v>
       </c>
       <c r="G4" s="10">
-        <v>10</v>
+        <f>10*$B$10</f>
+        <v>40</v>
       </c>
       <c r="H4" s="10">
-        <v>10</v>
+        <f>10*$B$10</f>
+        <v>40</v>
       </c>
       <c r="I4" s="10">
+        <f>0*$B$10</f>
         <v>0</v>
       </c>
       <c r="J4" s="10">
+        <f>0*$B$10</f>
         <v>0</v>
       </c>
       <c r="K4" s="12">
-        <v>10</v>
+        <f>10*$B$10</f>
+        <v>40</v>
       </c>
       <c r="L4" s="12">
+        <f>0*$B$10</f>
         <v>0</v>
       </c>
       <c r="M4" s="14">
@@ -986,24 +1000,31 @@
         <v>0</v>
       </c>
       <c r="F5" s="10">
-        <v>7.5</v>
+        <f>7.5*$B$10</f>
+        <v>30</v>
       </c>
       <c r="G5" s="10">
-        <v>7.5</v>
+        <f>7.5*$B$10</f>
+        <v>30</v>
       </c>
       <c r="H5" s="10">
-        <v>7.5</v>
+        <f>7.5*$B$10</f>
+        <v>30</v>
       </c>
       <c r="I5" s="10">
-        <v>60</v>
+        <f>60*$B$10</f>
+        <v>240</v>
       </c>
       <c r="J5" s="10">
+        <f t="shared" ref="J5:J7" si="0">0*$B$10</f>
         <v>0</v>
       </c>
       <c r="K5" s="12">
-        <v>7.5</v>
+        <f>7.5*$B$10</f>
+        <v>30</v>
       </c>
       <c r="L5" s="12">
+        <f t="shared" ref="L5:L7" si="1">0*$B$10</f>
         <v>0</v>
       </c>
       <c r="M5" s="14">
@@ -1045,24 +1066,31 @@
         <v>0</v>
       </c>
       <c r="F6" s="10">
-        <v>10</v>
+        <f>10*$B$10</f>
+        <v>40</v>
       </c>
       <c r="G6" s="10">
-        <v>10</v>
+        <f>10*$B$10</f>
+        <v>40</v>
       </c>
       <c r="H6" s="10">
-        <v>10</v>
+        <f>10*$B$10</f>
+        <v>40</v>
       </c>
       <c r="I6" s="10">
+        <f>0*$B$10</f>
         <v>0</v>
       </c>
       <c r="J6" s="10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K6" s="12">
-        <v>10</v>
+        <f>10*$B$10</f>
+        <v>40</v>
       </c>
       <c r="L6" s="12">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M6" s="14">
@@ -1104,24 +1132,31 @@
         <v>0</v>
       </c>
       <c r="F7" s="10">
-        <v>7.5</v>
+        <f>7.5*$B$10</f>
+        <v>30</v>
       </c>
       <c r="G7" s="10">
-        <v>7.5</v>
+        <f>7.5*$B$10</f>
+        <v>30</v>
       </c>
       <c r="H7" s="10">
-        <v>7.5</v>
+        <f>7.5*$B$10</f>
+        <v>30</v>
       </c>
       <c r="I7" s="10">
-        <v>60</v>
+        <f>60*$B$10</f>
+        <v>240</v>
       </c>
       <c r="J7" s="10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K7" s="12">
-        <v>7.5</v>
+        <f>7.5*$B$10</f>
+        <v>30</v>
       </c>
       <c r="L7" s="12">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M7" s="14">
@@ -1163,25 +1198,32 @@
         <v>12</v>
       </c>
       <c r="F8" s="10">
+        <f>0*$B$10</f>
         <v>0</v>
       </c>
       <c r="G8" s="10">
+        <f>0*$B$10</f>
         <v>0</v>
       </c>
       <c r="H8" s="10">
+        <f>0*$B$10</f>
         <v>0</v>
       </c>
       <c r="I8" s="10">
+        <f>0*$B$10</f>
         <v>0</v>
       </c>
       <c r="J8" s="10">
-        <v>12</v>
+        <f>12*$B$10</f>
+        <v>48</v>
       </c>
       <c r="K8" s="12">
+        <f>60*$B$10</f>
+        <v>240</v>
+      </c>
+      <c r="L8" s="12">
+        <f>15*$B$10</f>
         <v>60</v>
-      </c>
-      <c r="L8" s="12">
-        <v>15</v>
       </c>
       <c r="M8" s="14">
         <v>60</v>
@@ -1210,8 +1252,12 @@
       <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="5"/>
@@ -1254,28 +1300,28 @@
     <row r="14" spans="1:19">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1296,27 +1342,27 @@
       </c>
       <c r="E15" s="1">
         <f>IFERROR(60/F4,0)+IFERROR(60/I4,0)+IFERROR(60/J4,0)+IFERROR(60/K4,0)+IFERROR(60/G4,0)</f>
-        <v>18</v>
+        <v>4.5</v>
       </c>
       <c r="F15" s="1">
         <f>IFERROR(60/F4,0)+IFERROR(60/G4,0)+IFERROR(60/I4,0)+IFERROR(60/J4,0)+IFERROR(60/K4,0)</f>
-        <v>18</v>
+        <v>4.5</v>
       </c>
       <c r="G15" s="1">
         <f>IFERROR(60/C4,0)+IFERROR(60/D4,0)+IFERROR(60/E4,0)+IFERROR(60/F4,0)+IFERROR(60/G4,0)+IFERROR(60/I4,0)+IFERROR(60/J4,0)</f>
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H15" s="1">
         <f>IFERROR(60/C4,0)+IFERROR(60/D4,0)+IFERROR(60/E4,0)+IFERROR(60/F4,0)+IFERROR(60/I4,0)+IFERROR(60/J4,0)+IFERROR(60/H4,0)</f>
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I15" s="1">
         <f>IFERROR(60/M4,0)+IFERROR(60/N4,0)+IFERROR(60/D4,0)+IFERROR(60/E4,0)+IFERROR(60/K4,0)+IFERROR(60/L4,0)</f>
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="J15" s="1">
         <f>IFERROR(60/M4,0)+IFERROR(60/O4,0)+IFERROR(60/D4,0)+IFERROR(60/E4,0)+IFERROR(60/K4,0)+IFERROR(60/L4,0)</f>
-        <v>18</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1327,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" ref="C16:C19" si="0">IFERROR(60/C5,0)+IFERROR(60/M5,0)+IFERROR(60/N5,0)</f>
+        <f t="shared" ref="C16:C19" si="2">IFERROR(60/C5,0)+IFERROR(60/M5,0)+IFERROR(60/N5,0)</f>
         <v>19</v>
       </c>
       <c r="D16" s="1">
@@ -1335,28 +1381,28 @@
         <v>19</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" ref="E16:E19" si="1">IFERROR(60/F5,0)+IFERROR(60/I5,0)+IFERROR(60/J5,0)+IFERROR(60/K5,0)+IFERROR(60/G5,0)</f>
-        <v>25</v>
+        <f t="shared" ref="E16:E19" si="3">IFERROR(60/F5,0)+IFERROR(60/I5,0)+IFERROR(60/J5,0)+IFERROR(60/K5,0)+IFERROR(60/G5,0)</f>
+        <v>6.25</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" ref="F16:F19" si="2">IFERROR(60/F5,0)+IFERROR(60/G5,0)+IFERROR(60/I5,0)+IFERROR(60/J5,0)+IFERROR(60/K5,0)</f>
-        <v>25</v>
+        <f t="shared" ref="F16:F19" si="4">IFERROR(60/F5,0)+IFERROR(60/G5,0)+IFERROR(60/I5,0)+IFERROR(60/J5,0)+IFERROR(60/K5,0)</f>
+        <v>6.25</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" ref="G16:G19" si="3">IFERROR(60/C5,0)+IFERROR(60/D5,0)+IFERROR(60/E5,0)+IFERROR(60/F5,0)+IFERROR(60/G5,0)+IFERROR(60/I5,0)+IFERROR(60/J5,0)</f>
-        <v>30</v>
+        <f t="shared" ref="G16:G19" si="5">IFERROR(60/C5,0)+IFERROR(60/D5,0)+IFERROR(60/E5,0)+IFERROR(60/F5,0)+IFERROR(60/G5,0)+IFERROR(60/I5,0)+IFERROR(60/J5,0)</f>
+        <v>17.25</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" ref="H16:H19" si="4">IFERROR(60/C5,0)+IFERROR(60/D5,0)+IFERROR(60/E5,0)+IFERROR(60/F5,0)+IFERROR(60/I5,0)+IFERROR(60/J5,0)+IFERROR(60/H5,0)</f>
-        <v>30</v>
+        <f t="shared" ref="H16:H19" si="6">IFERROR(60/C5,0)+IFERROR(60/D5,0)+IFERROR(60/E5,0)+IFERROR(60/F5,0)+IFERROR(60/I5,0)+IFERROR(60/J5,0)+IFERROR(60/H5,0)</f>
+        <v>17.25</v>
       </c>
       <c r="I16" s="1">
         <f>IFERROR(60/M5,0)+IFERROR(60/N5,0)+IFERROR(60/D5,0)+IFERROR(60/E5,0)+IFERROR(60/K5,0)+IFERROR(60/L5,0)</f>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J16" s="1">
         <f>IFERROR(60/M5,0)+IFERROR(60/O5,0)+IFERROR(60/D5,0)+IFERROR(60/E5,0)+IFERROR(60/K5,0)+IFERROR(60/L5,0)</f>
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1367,36 +1413,36 @@
         <v>2</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" ref="D17:D19" si="5">IFERROR(60/C6,0)+IFERROR(60/M6,0)+IFERROR(60/O6,0)</f>
+        <f t="shared" ref="D17:D19" si="7">IFERROR(60/C6,0)+IFERROR(60/M6,0)+IFERROR(60/O6,0)</f>
         <v>14</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="3"/>
+        <v>4.5</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>4.5</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="3"/>
-        <v>22</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="4"/>
-        <v>22</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="I17" s="1">
         <f>IFERROR(60/M6,0)+IFERROR(60/N6,0)+IFERROR(60/D6,0)+IFERROR(60/E6,0)+IFERROR(60/K6,0)+IFERROR(60/L6,0)</f>
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="J17" s="1">
         <f>IFERROR(60/M6,0)+IFERROR(60/O6,0)+IFERROR(60/D6,0)+IFERROR(60/E6,0)+IFERROR(60/K6,0)+IFERROR(60/L6,0)</f>
-        <v>18</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1407,36 +1453,36 @@
         <v>3</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="D18" s="1">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="3"/>
+        <v>6.25</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="4"/>
+        <v>6.25</v>
+      </c>
+      <c r="G18" s="1">
         <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="3"/>
-        <v>30</v>
+        <v>17.25</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <f t="shared" si="6"/>
+        <v>17.25</v>
       </c>
       <c r="I18" s="1">
         <f>IFERROR(60/M7,0)+IFERROR(60/N7,0)+IFERROR(60/D7,0)+IFERROR(60/E7,0)+IFERROR(60/K7,0)+IFERROR(60/L7,0)</f>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J18" s="1">
         <f>IFERROR(60/M7,0)+IFERROR(60/O7,0)+IFERROR(60/D7,0)+IFERROR(60/E7,0)+IFERROR(60/K7,0)+IFERROR(60/L7,0)</f>
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1447,36 +1493,36 @@
         <v>4</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F19" s="1">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
+      <c r="D19" s="1">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
       <c r="G19" s="1">
-        <f t="shared" si="3"/>
-        <v>16</v>
+        <f t="shared" si="5"/>
+        <v>12.25</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <f t="shared" si="6"/>
+        <v>12.25</v>
       </c>
       <c r="I19" s="1">
         <f>IFERROR(60/M8,0)+IFERROR(60/N8,0)+IFERROR(60/D8,0)+IFERROR(60/E8,0)+IFERROR(60/K8,0)+IFERROR(60/L8,0)</f>
-        <v>12</v>
+        <v>8.25</v>
       </c>
       <c r="J19" s="1">
         <f>IFERROR(60/M8,0)+IFERROR(60/O8,0)+IFERROR(60/D8,0)+IFERROR(60/E8,0)+IFERROR(60/K8,0)+IFERROR(60/L8,0)</f>
-        <v>12</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1487,51 +1533,51 @@
     <row r="22" spans="1:10">
       <c r="C22" s="1">
         <f>C15+E15</f>
-        <v>32</v>
+        <v>18.5</v>
       </c>
       <c r="D22" s="1">
         <f>D15+F15</f>
-        <v>32</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="C23" s="1">
-        <f t="shared" ref="C23:D26" si="6">C16+E16</f>
-        <v>44</v>
+        <f t="shared" ref="C23:D26" si="8">C16+E16</f>
+        <v>25.25</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="6"/>
-        <v>44</v>
+        <f t="shared" si="8"/>
+        <v>25.25</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="C24" s="1">
-        <f t="shared" si="6"/>
-        <v>32</v>
+        <f t="shared" si="8"/>
+        <v>18.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="6"/>
-        <v>32</v>
+        <f t="shared" si="8"/>
+        <v>18.5</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="C25" s="1">
-        <f t="shared" si="6"/>
-        <v>44</v>
+        <f t="shared" si="8"/>
+        <v>25.25</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="6"/>
-        <v>44</v>
+        <f t="shared" si="8"/>
+        <v>25.25</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="C26" s="1">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>7.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
